--- a/src/test/java/base/demoQA.xlsx
+++ b/src/test/java/base/demoQA.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="-90" windowWidth="27510" windowHeight="8805"/>
+    <workbookView xWindow="1035" yWindow="-90" windowWidth="27765" windowHeight="13305" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
-    <sheet name="ElementNames" sheetId="3" r:id="rId3"/>
-    <sheet name="ValidCredentials" sheetId="4" r:id="rId4"/>
-    <sheet name="Messages" sheetId="5" r:id="rId5"/>
+    <sheet name="ElementNames" sheetId="3" r:id="rId2"/>
+    <sheet name="Messages" sheetId="5" r:id="rId3"/>
+    <sheet name="ValidCredentials" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="234">
   <si>
     <t>https://www.toolsqa.com/selenium-training/</t>
   </si>
@@ -83,9 +82,6 @@
     <t>https://demoqa.com/books</t>
   </si>
   <si>
-    <t>Elements page:</t>
-  </si>
-  <si>
     <t>Homepage names:</t>
   </si>
   <si>
@@ -116,9 +112,6 @@
     <t>Dynamic Properties</t>
   </si>
   <si>
-    <t>Elements page valid credentials:</t>
-  </si>
-  <si>
     <t>Full name:</t>
   </si>
   <si>
@@ -167,18 +160,12 @@
     <t>681 Brooks Mangum Rd</t>
   </si>
   <si>
-    <t>Homepage URL:</t>
-  </si>
-  <si>
     <t>https://demoqa.com/</t>
   </si>
   <si>
     <t xml:space="preserve">Selenium training page title: </t>
   </si>
   <si>
-    <t xml:space="preserve">Radio Button Messages: </t>
-  </si>
-  <si>
     <t>You have selected Yes</t>
   </si>
   <si>
@@ -186,13 +173,563 @@
   </si>
   <si>
     <t>You have selected No</t>
+  </si>
+  <si>
+    <t>Homepage:</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/text-box</t>
+  </si>
+  <si>
+    <t>Text Box:</t>
+  </si>
+  <si>
+    <t>Check Box:</t>
+  </si>
+  <si>
+    <t>Radio Button:</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/radio-button</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/checkbox</t>
+  </si>
+  <si>
+    <t>Web Tables:</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/webtables</t>
+  </si>
+  <si>
+    <t>Buttons:</t>
+  </si>
+  <si>
+    <t>Links:</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/links</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/buttons</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/broken</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/upload-download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Properties: </t>
+  </si>
+  <si>
+    <t>https://demoqa.com/dynamic-properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Form: </t>
+  </si>
+  <si>
+    <t>https://demoqa.com/automation-practice-form</t>
+  </si>
+  <si>
+    <t>Browser Windows:</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/browser-windows</t>
+  </si>
+  <si>
+    <t>Alerts:</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/alerts</t>
+  </si>
+  <si>
+    <t>Frames:</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/frames</t>
+  </si>
+  <si>
+    <t>Nested Frames:</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/nestedframes</t>
+  </si>
+  <si>
+    <t>Modal Dialogs</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/modal-dialogs</t>
+  </si>
+  <si>
+    <t>HOMEPAGE URLS:</t>
+  </si>
+  <si>
+    <t>ELEMENTS URLS:</t>
+  </si>
+  <si>
+    <t>FORMS URLS:</t>
+  </si>
+  <si>
+    <t>Accordian</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/accordian</t>
+  </si>
+  <si>
+    <t>Auto Complete</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/auto-complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Picker
+</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/date-picker</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progress Bar
+</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/progress-bar</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/tabs</t>
+  </si>
+  <si>
+    <t>Tool Tips</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/tool-tips</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/menu</t>
+  </si>
+  <si>
+    <t>Select Menu</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/select-menu</t>
+  </si>
+  <si>
+    <t>INTERACTIONS URLS:</t>
+  </si>
+  <si>
+    <t>ALERTS, FRAME &amp; WINDOWS URLS:</t>
+  </si>
+  <si>
+    <t>WIDGETS URLS:</t>
+  </si>
+  <si>
+    <t>Sortable</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/sortable</t>
+  </si>
+  <si>
+    <t>Selectable</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/selectable</t>
+  </si>
+  <si>
+    <t>Resizable</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/resizable</t>
+  </si>
+  <si>
+    <t>Droppable</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/droppable</t>
+  </si>
+  <si>
+    <t>Dragabble</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/dragabble</t>
+  </si>
+  <si>
+    <t>BOOK STORE URLS:</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/login</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/profile</t>
+  </si>
+  <si>
+    <t>Book Store API</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/swagger/</t>
+  </si>
+  <si>
+    <t>Practice Form</t>
+  </si>
+  <si>
+    <t>Forms page names:</t>
+  </si>
+  <si>
+    <t>Elements page names:</t>
+  </si>
+  <si>
+    <t>Alerts</t>
+  </si>
+  <si>
+    <t>Frames</t>
+  </si>
+  <si>
+    <t>Date Picker</t>
+  </si>
+  <si>
+    <t>Book Store</t>
+  </si>
+  <si>
+    <t>Browser Windows</t>
+  </si>
+  <si>
+    <t>Nested Frames</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Widgets page names:</t>
+  </si>
+  <si>
+    <t>Alerts, Frame &amp; Windows page names:</t>
+  </si>
+  <si>
+    <t>Interactions page names:</t>
+  </si>
+  <si>
+    <t>Book Store Application page names:</t>
+  </si>
+  <si>
+    <t>Elements page TextBox valid credentials:</t>
+  </si>
+  <si>
+    <t>Elements page Web Tables valid credentials:</t>
+  </si>
+  <si>
+    <t>First name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Last name: </t>
+  </si>
+  <si>
+    <t>Age:</t>
+  </si>
+  <si>
+    <t>Salary:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Department:</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Winslet</t>
+  </si>
+  <si>
+    <t>joshA@gmail.com</t>
+  </si>
+  <si>
+    <t>winsletkate3@gmail.com</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales </t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>You have done a double click</t>
+  </si>
+  <si>
+    <t>You have done a right click</t>
+  </si>
+  <si>
+    <t>You have done a dynamic click</t>
+  </si>
+  <si>
+    <t>Buttons Page messages:</t>
+  </si>
+  <si>
+    <t>Links Page messages:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio Button Page messages: </t>
+  </si>
+  <si>
+    <t>Link has responded with staus 201 and status text Created</t>
+  </si>
+  <si>
+    <t>Created link:</t>
+  </si>
+  <si>
+    <t>No Content</t>
+  </si>
+  <si>
+    <t>Moved</t>
+  </si>
+  <si>
+    <t>Bad Request</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Link has responded with staus 404 and status text Not Found</t>
+  </si>
+  <si>
+    <t>Link has responded with staus 403 and status text Forbidden</t>
+  </si>
+  <si>
+    <t>Link has responded with staus 204 and status text No Content</t>
+  </si>
+  <si>
+    <t>Link has responded with staus 301 and status text Moved Permanently</t>
+  </si>
+  <si>
+    <t>Link has responded with staus 400 and status text Bad Request</t>
+  </si>
+  <si>
+    <t>Link has responded with staus 401 and status text Unauthorized</t>
+  </si>
+  <si>
+    <t>Broken page:</t>
+  </si>
+  <si>
+    <t>Status Codes
+This page returned a 500 status code.
+For a definition and common list of HTTP status codes, go here</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayleen </t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rylie </t>
+  </si>
+  <si>
+    <t>Greer</t>
+  </si>
+  <si>
+    <t>tannerBurke12@gmail.com</t>
+  </si>
+  <si>
+    <t>tAllen@gmail.com</t>
+  </si>
+  <si>
+    <t>JayleenM@gmail.com</t>
+  </si>
+  <si>
+    <t>greer.rylie@gmail.com</t>
+  </si>
+  <si>
+    <t>Administrative Aide</t>
+  </si>
+  <si>
+    <t>Assistance Agent</t>
+  </si>
+  <si>
+    <t>Maintenance Worker</t>
+  </si>
+  <si>
+    <t>Bookseller</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>Web Tables Drop-down menu</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Forms page Practice Form valid credentials:</t>
+  </si>
+  <si>
+    <t>Firstname:</t>
+  </si>
+  <si>
+    <t>Lastname:</t>
+  </si>
+  <si>
+    <t>Mobile:</t>
+  </si>
+  <si>
+    <t>Date of Birth:</t>
+  </si>
+  <si>
+    <t>Subjects:</t>
+  </si>
+  <si>
+    <t>Current address:</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>18 Avg 1998</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>12 May 1997</t>
+  </si>
+  <si>
+    <t>09 Feb 1993</t>
+  </si>
+  <si>
+    <t>0634446661</t>
+  </si>
+  <si>
+    <t>0641112221</t>
+  </si>
+  <si>
+    <t>Practice Form page gender values:</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Practice form hobbies values:</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0612224441</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +759,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,17 +788,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -268,8 +806,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,344 +1181,1232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="15" max="15" width="1.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="D6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId9"/>
+    <hyperlink ref="E4" r:id="rId10"/>
+    <hyperlink ref="E3" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId12"/>
+    <hyperlink ref="E7" r:id="rId13"/>
+    <hyperlink ref="E6" r:id="rId14"/>
+    <hyperlink ref="E10" r:id="rId15"/>
+    <hyperlink ref="H2" r:id="rId16"/>
+    <hyperlink ref="K2" r:id="rId17"/>
+    <hyperlink ref="K5" r:id="rId18"/>
+    <hyperlink ref="K6" r:id="rId19"/>
+    <hyperlink ref="N2" r:id="rId20"/>
+    <hyperlink ref="N4" r:id="rId21"/>
+    <hyperlink ref="N5" r:id="rId22"/>
+    <hyperlink ref="N6" r:id="rId23"/>
+    <hyperlink ref="N7" r:id="rId24"/>
+    <hyperlink ref="N8" r:id="rId25"/>
+    <hyperlink ref="N10" r:id="rId26"/>
+    <hyperlink ref="B13" r:id="rId27"/>
+    <hyperlink ref="B14" r:id="rId28"/>
+    <hyperlink ref="B15" r:id="rId29"/>
+    <hyperlink ref="B16" r:id="rId30"/>
+    <hyperlink ref="B17" r:id="rId31"/>
+    <hyperlink ref="E13" r:id="rId32"/>
+    <hyperlink ref="E14" r:id="rId33"/>
+    <hyperlink ref="E15" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="1.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="1.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="1.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" customWidth="1"/>
+    <col min="16" max="16" width="2" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="R3" s="23"/>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="R4" s="23"/>
+    </row>
+    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="R5" s="23"/>
+    </row>
+    <row r="6" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="R6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="R7" s="23"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
+    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>31</v>
+      <c r="B4" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="57" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="E5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="E6" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="E7" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="E8" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="E9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="G5" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7"/>
+    <hyperlink ref="G7" r:id="rId8"/>
+    <hyperlink ref="G8" r:id="rId9"/>
+    <hyperlink ref="G9" r:id="rId10"/>
+    <hyperlink ref="M3" r:id="rId11"/>
+    <hyperlink ref="M4" r:id="rId12"/>
+    <hyperlink ref="M5" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>